--- a/documents/data_example_staging.xlsx
+++ b/documents/data_example_staging.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ChuongTrinhDaiHoc\Data Warehouse\datawarehouse_staging\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A56581-3022-428C-885C-DF56F0AC92FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E800B2-8F37-4A09-8BBE-BE1C5501D379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -451,7 +451,7 @@
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
